--- a/assets/generated/model4/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model4/VehicleTripDeliveryStartTime.xlsx
@@ -348,18 +348,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="B1">
-        <v>256.1999999999988</v>
+        <v>160.3999999999996</v>
       </c>
       <c r="C1">
-        <v>310.1999999999988</v>
+        <v>293.8000140938362</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>10070</v>

--- a/assets/generated/model4/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model4/VehicleTripDeliveryStartTime.xlsx
@@ -348,18 +348,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B1">
-        <v>160.3999999999996</v>
+        <v>214.1999999999989</v>
       </c>
       <c r="C1">
-        <v>293.8000140938362</v>
+        <v>268.5999999999986</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>10070</v>
